--- a/data/trans_orig/P33B_R5-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B_R5-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>80212</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>65785</v>
+        <v>66513</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>96220</v>
+        <v>96205</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1388853411274551</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1139046171064234</v>
+        <v>0.1151661438887773</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1666023221326767</v>
+        <v>0.1665764423629385</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>376</v>
@@ -762,19 +762,19 @@
         <v>218810</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>199534</v>
+        <v>200062</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>237837</v>
+        <v>239248</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.266607829103075</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2431206629983401</v>
+        <v>0.2437648202169673</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2897908967982439</v>
+        <v>0.2915100820415718</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>484</v>
@@ -783,19 +783,19 @@
         <v>299022</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>277229</v>
+        <v>274218</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>327704</v>
+        <v>322406</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2138529464763151</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1982666666308856</v>
+        <v>0.1961136293464418</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2343651544346896</v>
+        <v>0.230576528243675</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>497330</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>481322</v>
+        <v>481337</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>511757</v>
+        <v>511029</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8611146588725449</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8333976778673233</v>
+        <v>0.8334235576370614</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8860953828935767</v>
+        <v>0.8848338561112228</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1049</v>
@@ -833,19 +833,19 @@
         <v>601909</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>582882</v>
+        <v>581471</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>621185</v>
+        <v>620657</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7333921708969249</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7102091032017556</v>
+        <v>0.7084899179584281</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7568793370016599</v>
+        <v>0.7562351797830323</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1631</v>
@@ -854,19 +854,19 @@
         <v>1099239</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1070557</v>
+        <v>1075855</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1121032</v>
+        <v>1124043</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7861470535236852</v>
+        <v>0.7861470535236849</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7656348455653104</v>
+        <v>0.7694234717563249</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8017333333691143</v>
+        <v>0.8038863706535579</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>119307</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>101193</v>
+        <v>99447</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>147329</v>
+        <v>140631</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0535134507808949</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04538865999640594</v>
+        <v>0.04460558095729828</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06608199707917954</v>
+        <v>0.06307794756795748</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>301</v>
@@ -979,19 +979,19 @@
         <v>197616</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>176281</v>
+        <v>176640</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>221441</v>
+        <v>221068</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09103711033349993</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08120834485160641</v>
+        <v>0.08137376394267792</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1020124265991898</v>
+        <v>0.1018408214038937</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>434</v>
@@ -1000,19 +1000,19 @@
         <v>316924</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>287485</v>
+        <v>287355</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>351532</v>
+        <v>350607</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.07202473207168988</v>
+        <v>0.0720247320716899</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06533447440074287</v>
+        <v>0.06530482815334032</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0798897626993804</v>
+        <v>0.0796796124787072</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>2110178</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2082156</v>
+        <v>2088854</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2128292</v>
+        <v>2130038</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.946486549219105</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9339180029208202</v>
+        <v>0.9369220524320422</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9546113400035939</v>
+        <v>0.9553944190427016</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2619</v>
@@ -1050,19 +1050,19 @@
         <v>1973107</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1949282</v>
+        <v>1949655</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1994442</v>
+        <v>1994083</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9089628896665001</v>
+        <v>0.9089628896665002</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8979875734008103</v>
+        <v>0.8981591785961062</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9187916551483936</v>
+        <v>0.9186262360573219</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4477</v>
@@ -1071,19 +1071,19 @@
         <v>4083284</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4048676</v>
+        <v>4049601</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4112723</v>
+        <v>4112853</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.92797526792831</v>
+        <v>0.9279752679283102</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9201102373006197</v>
+        <v>0.9203203875212929</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9346655255992572</v>
+        <v>0.9346951718466605</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>38057</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26985</v>
+        <v>27315</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50225</v>
+        <v>50471</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05348157286138564</v>
+        <v>0.05348157286138563</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03792168588268762</v>
+        <v>0.03838627936102383</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07058196625334812</v>
+        <v>0.07092703254120396</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>84</v>
@@ -1196,19 +1196,19 @@
         <v>56466</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46168</v>
+        <v>45514</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>71607</v>
+        <v>70166</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07683769036578884</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06282457508793496</v>
+        <v>0.06193423415507916</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09744078186872369</v>
+        <v>0.09548046553136798</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>125</v>
@@ -1217,19 +1217,19 @@
         <v>94523</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>77649</v>
+        <v>78167</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>111262</v>
+        <v>112229</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06534766591438471</v>
+        <v>0.06534766591438468</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05368223059791417</v>
+        <v>0.05403976621260464</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07691985273111618</v>
+        <v>0.07758842084121829</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>673530</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>661362</v>
+        <v>661116</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>684602</v>
+        <v>684272</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9465184271386144</v>
+        <v>0.9465184271386142</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9294180337466523</v>
+        <v>0.929072967458796</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9620783141173134</v>
+        <v>0.9616137206389762</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>920</v>
@@ -1267,19 +1267,19 @@
         <v>678411</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>663270</v>
+        <v>664711</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>688709</v>
+        <v>689363</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9231623096342111</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9025592181312763</v>
+        <v>0.904519534468632</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9371754249120652</v>
+        <v>0.938065765844921</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1560</v>
@@ -1288,19 +1288,19 @@
         <v>1351941</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1335202</v>
+        <v>1334235</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1368815</v>
+        <v>1368297</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9346523340856154</v>
+        <v>0.9346523340856152</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9230801472688839</v>
+        <v>0.9224115791587817</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9463177694020858</v>
+        <v>0.9459602337873954</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>237576</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>207950</v>
+        <v>209054</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>269148</v>
+        <v>267941</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06751986643566084</v>
+        <v>0.06751986643566085</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05910002592208498</v>
+        <v>0.05941365855516587</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07649266084489624</v>
+        <v>0.07614969567134776</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>761</v>
@@ -1413,19 +1413,19 @@
         <v>472893</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>438546</v>
+        <v>443891</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>506847</v>
+        <v>510012</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.126906119884647</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1176887750098777</v>
+        <v>0.1191230541305849</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1360181376209316</v>
+        <v>0.1368673851217791</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1043</v>
@@ -1434,19 +1434,19 @@
         <v>710469</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>666565</v>
+        <v>667698</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>754615</v>
+        <v>760573</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.09806427060554629</v>
+        <v>0.0980642706055463</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0920043345479654</v>
+        <v>0.09216068728227692</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.104157627117801</v>
+        <v>0.1049799894502144</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>3281038</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3249466</v>
+        <v>3250673</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3310664</v>
+        <v>3309560</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9324801335643391</v>
+        <v>0.932480133564339</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9235073391551036</v>
+        <v>0.9238503043286524</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9408999740779149</v>
+        <v>0.9405863414448342</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4588</v>
@@ -1484,19 +1484,19 @@
         <v>3253427</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3219473</v>
+        <v>3216308</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3287774</v>
+        <v>3282429</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8730938801153532</v>
+        <v>0.873093880115353</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8639818623790684</v>
+        <v>0.8631326148782205</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8823112249901225</v>
+        <v>0.8808769458694148</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7668</v>
@@ -1505,19 +1505,19 @@
         <v>6534464</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6490318</v>
+        <v>6484360</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6578368</v>
+        <v>6577235</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9019357293944537</v>
+        <v>0.9019357293944538</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8958423728821993</v>
+        <v>0.8950200105497856</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9079956654520347</v>
+        <v>0.907839312717723</v>
       </c>
     </row>
     <row r="15">
